--- a/CTaxCosts_2030.xlsx
+++ b/CTaxCosts_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\trevo\Documents\R Projects\CTax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B398B42-7E1A-4C02-8C1E-EDC133544C71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6F2A45-1FFF-405B-8F2E-57673381F561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,12 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>All</t>
-  </si>
-  <si>
-    <t>NetCost</t>
   </si>
   <si>
     <t>&lt;$30k</t>
@@ -58,6 +55,24 @@
   </si>
   <si>
     <t>&gt;$150k</t>
+  </si>
+  <si>
+    <t>Household Annual Income Level</t>
+  </si>
+  <si>
+    <t>-900 or less</t>
+  </si>
+  <si>
+    <t>Net Carbon Costs</t>
+  </si>
+  <si>
+    <t>All Households</t>
+  </si>
+  <si>
+    <t>1,225 or more</t>
+  </si>
+  <si>
+    <t>Share with Rebates&gt;Ctax Costs</t>
   </si>
 </sst>
 </file>
@@ -93,8 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,1501 +394,1486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H88"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>-900</v>
-      </c>
-      <c r="B2">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
         <v>0.7</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>7.8</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>11.1</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>3.6</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>4.5</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>37.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>A2+25</f>
-        <v>-875</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E3">
-        <v>2.9</v>
-      </c>
-      <c r="F3">
-        <v>0.2</v>
-      </c>
-      <c r="G3">
-        <v>1.6</v>
-      </c>
-      <c r="H3">
-        <v>8.1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3+25</f>
-        <v>-850</v>
+        <v>-875</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D4">
-        <v>0.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E4">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="F4">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="G4">
         <v>1.6</v>
       </c>
       <c r="H4">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>-825</v>
+        <f t="shared" ref="A5:A68" si="0">A4+25</f>
+        <v>-850</v>
       </c>
       <c r="B5">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="D5">
+        <v>0.6</v>
+      </c>
+      <c r="E5">
         <v>4.8</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.3</v>
       </c>
-      <c r="F5">
-        <v>1.7</v>
-      </c>
       <c r="G5">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H5">
-        <v>13.6</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>-800</v>
+        <v>-825</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C6">
-        <v>9.1</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
-        <v>6.3</v>
+        <v>4.8</v>
       </c>
       <c r="E6">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="F6">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="G6">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>20.3</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>-775</v>
+        <v>-800</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.2000000000000002</v>
+        <v>9.1</v>
       </c>
       <c r="D7">
-        <v>9.5</v>
+        <v>6.3</v>
       </c>
       <c r="E7">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="F7">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="G7">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H7">
-        <v>19.899999999999999</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>-750</v>
+        <v>-775</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D8">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="E8">
-        <v>2.2999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="F8">
-        <v>5.0999999999999996</v>
+        <v>1.7</v>
       </c>
       <c r="G8">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="H8">
-        <v>14.4</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>-725</v>
+        <v>-750</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="D9">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="E9">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F9">
-        <v>3.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G9">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H9">
-        <v>12.2</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>-700</v>
+        <v>-725</v>
       </c>
       <c r="B10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="D10">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="E10">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="F10">
-        <v>5.0999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="G10">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H10">
-        <v>17.2</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>-675</v>
+        <v>-700</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>3.7</v>
       </c>
       <c r="D11">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="F11">
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G11">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H11">
-        <v>7.2</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>-650</v>
+        <v>-675</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>3.3</v>
+      </c>
+      <c r="E12">
         <v>0.5</v>
       </c>
-      <c r="D12">
-        <v>0.7</v>
-      </c>
-      <c r="E12">
-        <v>2.9</v>
-      </c>
       <c r="F12">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G12">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H12">
-        <v>8.8000000000000007</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>-625</v>
+        <v>-650</v>
       </c>
       <c r="B13">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0.5</v>
       </c>
       <c r="D13">
-        <v>4.9000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="E13">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="F13">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H13">
-        <v>16.2</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>-600</v>
+        <v>-625</v>
       </c>
       <c r="B14">
-        <v>6.8</v>
+        <v>3.1</v>
       </c>
       <c r="C14">
-        <v>6.8</v>
+        <v>0.5</v>
       </c>
       <c r="D14">
-        <v>0.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E14">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="F14">
-        <v>0.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="H14">
-        <v>22.1</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>-575</v>
+        <v>-600</v>
       </c>
       <c r="B15">
-        <v>3.7</v>
+        <v>6.8</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="D15">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="E15">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="F15">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="G15">
-        <v>5.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>-550</v>
+        <v>-575</v>
       </c>
       <c r="B16">
-        <v>8.5</v>
+        <v>3.7</v>
       </c>
       <c r="C16">
-        <v>13.3</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="E16">
-        <v>4.4000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="F16">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="G16">
-        <v>6.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H16">
-        <v>35.6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>-525</v>
+        <v>-550</v>
       </c>
       <c r="B17">
-        <v>14.4</v>
+        <v>8.5</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>13.3</v>
       </c>
       <c r="D17">
-        <v>5.9</v>
+        <v>0.8</v>
       </c>
       <c r="E17">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F17">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="G17">
-        <v>9.6999999999999993</v>
+        <v>6.9</v>
       </c>
       <c r="H17">
-        <v>49.2</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>-500</v>
+        <v>-525</v>
       </c>
       <c r="B18">
-        <v>8.5</v>
+        <v>14.4</v>
       </c>
       <c r="C18">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>7.8</v>
+        <v>5.9</v>
       </c>
       <c r="E18">
-        <v>8.6999999999999993</v>
+        <v>4.5</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="G18">
-        <v>9.1999999999999993</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H18">
-        <v>48.7</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>-475</v>
+        <v>-500</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="C19">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="D19">
         <v>7.8</v>
       </c>
       <c r="E19">
-        <v>2.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
       <c r="G19">
-        <v>8.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H19">
-        <v>41.2</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>-450</v>
+        <v>-475</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>13.7</v>
+        <v>10.3</v>
       </c>
       <c r="D20">
-        <v>13.2</v>
+        <v>7.8</v>
       </c>
       <c r="E20">
-        <v>7.6</v>
+        <v>2.4</v>
       </c>
       <c r="F20">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G20">
         <v>8.6</v>
       </c>
       <c r="H20">
-        <v>52.8</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>-425</v>
+        <v>-450</v>
       </c>
       <c r="B21">
-        <v>9.3000000000000007</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>16.8</v>
+        <v>13.7</v>
       </c>
       <c r="D21">
-        <v>12.8</v>
+        <v>13.2</v>
       </c>
       <c r="E21">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="F21">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="G21">
-        <v>10.8</v>
+        <v>8.6</v>
       </c>
       <c r="H21">
-        <v>61.3</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>-400</v>
+        <v>-425</v>
       </c>
       <c r="B22">
-        <v>8.3000000000000007</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C22">
-        <v>14.9</v>
+        <v>16.8</v>
       </c>
       <c r="D22">
-        <v>3.3</v>
+        <v>12.8</v>
       </c>
       <c r="E22">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="F22">
-        <v>8.8000000000000007</v>
+        <v>5.8</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>10.8</v>
       </c>
       <c r="H22">
-        <v>50.2</v>
+        <v>61.3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>-375</v>
+        <v>-400</v>
       </c>
       <c r="B23">
-        <v>6.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C23">
-        <v>12.2</v>
+        <v>14.9</v>
       </c>
       <c r="D23">
-        <v>8.4</v>
+        <v>3.3</v>
       </c>
       <c r="E23">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="F23">
-        <v>5.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G23">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="H23">
-        <v>47.8</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>-350</v>
+        <v>-375</v>
       </c>
       <c r="B24">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="C24">
-        <v>11.5</v>
+        <v>12.2</v>
       </c>
       <c r="D24">
-        <v>10.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="E24">
-        <v>11.9</v>
+        <v>6.5</v>
       </c>
       <c r="F24">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="G24">
-        <v>12.2</v>
+        <v>8.6</v>
       </c>
       <c r="H24">
-        <v>59.7</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>-325</v>
+        <v>-350</v>
       </c>
       <c r="B25">
-        <v>1.9</v>
+        <v>7.7</v>
       </c>
       <c r="C25">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="D25">
-        <v>8.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E25">
-        <v>4.2</v>
+        <v>11.9</v>
       </c>
       <c r="F25">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="G25">
-        <v>8.5</v>
+        <v>12.2</v>
       </c>
       <c r="H25">
-        <v>40.1</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>-300</v>
+        <v>-325</v>
       </c>
       <c r="B26">
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="C26">
-        <v>9.4</v>
+        <v>11.4</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="E26">
-        <v>7.9</v>
+        <v>4.2</v>
       </c>
       <c r="F26">
-        <v>8.6999999999999993</v>
+        <v>5.2</v>
       </c>
       <c r="G26">
-        <v>10.6</v>
+        <v>8.5</v>
       </c>
       <c r="H26">
-        <v>47.8</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>-275</v>
+        <v>-300</v>
       </c>
       <c r="B27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C27">
         <v>9.4</v>
       </c>
-      <c r="C27">
-        <v>9.1999999999999993</v>
-      </c>
       <c r="D27">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>7.9</v>
       </c>
       <c r="F27">
-        <v>6.3</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G27">
-        <v>12.6</v>
+        <v>10.6</v>
       </c>
       <c r="H27">
-        <v>53.2</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>-250</v>
+        <v>-275</v>
       </c>
       <c r="B28">
-        <v>2.2000000000000002</v>
+        <v>9.4</v>
       </c>
       <c r="C28">
-        <v>7.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D28">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="E28">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="F28">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="G28">
-        <v>14.5</v>
+        <v>12.6</v>
       </c>
       <c r="H28">
-        <v>43.4</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>-225</v>
+        <v>-250</v>
       </c>
       <c r="B29">
-        <v>8.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C29">
-        <v>15.4</v>
+        <v>7.6</v>
       </c>
       <c r="D29">
-        <v>9.5</v>
+        <v>5.3</v>
       </c>
       <c r="E29">
-        <v>3.4</v>
+        <v>7.4</v>
       </c>
       <c r="F29">
-        <v>8.8000000000000007</v>
+        <v>6.4</v>
       </c>
       <c r="G29">
-        <v>15.8</v>
+        <v>14.5</v>
       </c>
       <c r="H29">
-        <v>61.1</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>-200</v>
+        <v>-225</v>
       </c>
       <c r="B30">
-        <v>12.8</v>
+        <v>8.1</v>
       </c>
       <c r="C30">
-        <v>6.6</v>
+        <v>15.4</v>
       </c>
       <c r="D30">
+        <v>9.5</v>
+      </c>
+      <c r="E30">
+        <v>3.4</v>
+      </c>
+      <c r="F30">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E30">
-        <v>11.6</v>
-      </c>
-      <c r="F30">
-        <v>7.2</v>
-      </c>
       <c r="G30">
-        <v>14.7</v>
+        <v>15.8</v>
       </c>
       <c r="H30">
-        <v>61.7</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>-175</v>
+        <v>-200</v>
       </c>
       <c r="B31">
-        <v>5.7</v>
+        <v>12.8</v>
       </c>
       <c r="C31">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="D31">
-        <v>7.3</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E31">
-        <v>8.1</v>
+        <v>11.6</v>
       </c>
       <c r="F31">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="G31">
-        <v>13.4</v>
+        <v>14.7</v>
       </c>
       <c r="H31">
-        <v>44.5</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>-175</v>
       </c>
       <c r="B32">
-        <v>2.5</v>
+        <v>5.7</v>
       </c>
       <c r="C32">
-        <v>2.5</v>
+        <v>6.8</v>
       </c>
       <c r="D32">
-        <v>3.5</v>
+        <v>7.3</v>
       </c>
       <c r="E32">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="F32">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="G32">
-        <v>10.1</v>
+        <v>13.4</v>
       </c>
       <c r="H32">
-        <v>30.1</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>-125</v>
+        <v>-150</v>
       </c>
       <c r="B33">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="C33">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="D33">
-        <v>5.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="E33">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="G33">
-        <v>12.1</v>
+        <v>10.1</v>
       </c>
       <c r="H33">
-        <v>36</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>-125</v>
       </c>
       <c r="B34">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="C34">
-        <v>4.5999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="D34">
-        <v>2.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E34">
-        <v>4.4000000000000004</v>
+        <v>7.2</v>
       </c>
       <c r="F34">
-        <v>4.9000000000000004</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="H34">
-        <v>31.1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>-75</v>
+        <v>-100</v>
       </c>
       <c r="B35">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="C35">
-        <v>3.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D35">
-        <v>5.0999999999999996</v>
+        <v>2.6</v>
       </c>
       <c r="E35">
-        <v>2.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F35">
-        <v>6.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G35">
-        <v>11.3</v>
+        <v>12.6</v>
       </c>
       <c r="H35">
-        <v>29.4</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>-50</v>
+        <v>-75</v>
       </c>
       <c r="B36">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="C36">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="D36">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E36">
         <v>2.7</v>
       </c>
-      <c r="E36">
-        <v>2.9</v>
-      </c>
       <c r="F36">
-        <v>4</v>
+        <v>6.9</v>
       </c>
       <c r="G36">
-        <v>14.4</v>
+        <v>11.3</v>
       </c>
       <c r="H36">
-        <v>30</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="B37">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="C37">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="D37">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="E37">
-        <v>4.4000000000000004</v>
+        <v>2.9</v>
       </c>
       <c r="F37">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="G37">
-        <v>8.6999999999999993</v>
+        <v>14.4</v>
       </c>
       <c r="H37">
-        <v>26.7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="B38">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C38">
+        <v>4.5</v>
+      </c>
+      <c r="D38">
         <v>3.5</v>
       </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
       <c r="E38">
-        <v>1.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F38">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="G38">
-        <v>9.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H38">
-        <v>23.6</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C39">
-        <v>6.7</v>
+        <v>3.5</v>
       </c>
       <c r="D39">
-        <v>2.2999999999999998</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>5.9</v>
+        <v>1.8</v>
       </c>
       <c r="F39">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G39">
-        <v>11.1</v>
+        <v>9.6</v>
       </c>
       <c r="H39">
-        <v>30.2</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>6.7</v>
       </c>
       <c r="D40">
-        <v>1.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E40">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="F40">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="G40">
-        <v>16.899999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="H40">
-        <v>28.3</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="C41">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="E41">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="F41">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="G41">
-        <v>7</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H41">
-        <v>24.6</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B42">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="C42">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="D42">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
       <c r="E42">
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="F42">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="G42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H42">
-        <v>26.9</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B43">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="C43">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="D43">
-        <v>1.7</v>
+        <v>6.7</v>
       </c>
       <c r="E43">
-        <v>3.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F43">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="G43">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="H43">
-        <v>24.1</v>
+        <v>26.9</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="B44">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="C44">
-        <v>4.9000000000000004</v>
+        <v>8.5</v>
       </c>
       <c r="D44">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="E44">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="F44">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="G44">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="H44">
-        <v>19.899999999999999</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B45">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="C45">
-        <v>6.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D45">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="E45">
-        <v>4.9000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="F45">
-        <v>4.9000000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="G45">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="H45">
-        <v>27</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B46">
-        <v>2.2000000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="C46">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="D46">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="E46">
-        <v>1.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F46">
-        <v>2.2999999999999998</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G46">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="H46">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="B47">
-        <v>5.0999999999999996</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C47">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="D47">
-        <v>1.1000000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="E47">
+        <v>1.2</v>
+      </c>
+      <c r="F47">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F47">
-        <v>0.8</v>
-      </c>
       <c r="G47">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="H47">
-        <v>16.100000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B48">
-        <v>1.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C48">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="D48">
-        <v>2.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E48">
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F48">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="G48">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="H48">
-        <v>18.5</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="B49">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="C49">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D49">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="E49">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="G49">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H49">
-        <v>20</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="B50">
-        <v>0.2</v>
+        <v>3.1</v>
       </c>
       <c r="C50">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D50">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="E50">
-        <v>4.4000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="F50">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="H50">
-        <v>16.100000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C51">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="D51">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E51">
-        <v>2.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F51">
-        <v>4.9000000000000004</v>
+        <v>2.1</v>
       </c>
       <c r="G51">
-        <v>5.8</v>
+        <v>7.3</v>
       </c>
       <c r="H51">
-        <v>17.7</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>1.1000000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="D52">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E52">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="F52">
-        <v>5.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G52">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="H52">
-        <v>14.8</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D53">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="E53">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="F53">
-        <v>2.4</v>
+        <v>5.6</v>
       </c>
       <c r="G53">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="H53">
-        <v>13.6</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>1.1000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="D54">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>7.9</v>
       </c>
       <c r="H54">
-        <v>12.1</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D55">
-        <v>2.2000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="E55">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="F55">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="G55">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H55">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1878,214 +1882,214 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E56">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="F56">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="H56">
-        <v>9</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="E57">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="F57">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G57">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="H57">
-        <v>13.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="B58">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="D58">
-        <v>0.2</v>
+        <v>5.4</v>
       </c>
       <c r="E58">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="F58">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="G58">
-        <v>8.4</v>
+        <v>4.7</v>
       </c>
       <c r="H58">
-        <v>13.1</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="B59">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="C59">
-        <v>0.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F59">
         <v>0.3</v>
       </c>
       <c r="G59">
-        <v>5.6</v>
+        <v>8.4</v>
       </c>
       <c r="H59">
-        <v>8.8000000000000007</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="B60">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C60">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D60">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
         <v>0.3</v>
       </c>
-      <c r="F60">
-        <v>3.1</v>
-      </c>
       <c r="G60">
-        <v>3.3</v>
+        <v>5.6</v>
       </c>
       <c r="H60">
-        <v>9.6999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="C61">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="D61">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E61">
         <v>0.3</v>
       </c>
       <c r="F61">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="G61">
-        <v>4.0999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="H61">
-        <v>5.6</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0.1</v>
+      </c>
+      <c r="D62">
+        <v>0.5</v>
+      </c>
+      <c r="E62">
         <v>0.3</v>
       </c>
-      <c r="C62">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D62">
-        <v>3.6</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
       <c r="F62">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G62">
-        <v>7.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H62">
-        <v>14.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C63">
-        <v>0.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D63">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="E63">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="G63">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="H63">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2094,106 +2098,106 @@
         <v>0.7</v>
       </c>
       <c r="D64">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="E64">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>8.4</v>
       </c>
       <c r="H64">
-        <v>5.7</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="D65">
-        <v>3.1</v>
+        <v>0.1</v>
       </c>
       <c r="E65">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65">
-        <v>6.4</v>
+        <v>3</v>
       </c>
       <c r="H65">
-        <v>14.1</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="D66">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="E66">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="F66">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>2.9</v>
+        <v>6.4</v>
       </c>
       <c r="H66">
-        <v>10</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
+        <v>3.7</v>
+      </c>
+      <c r="D67">
+        <v>1.5</v>
+      </c>
+      <c r="E67">
         <v>0.4</v>
       </c>
-      <c r="D67">
-        <v>0.1</v>
-      </c>
-      <c r="E67">
-        <v>0.6</v>
-      </c>
       <c r="F67">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="G67">
-        <v>5.2</v>
+        <v>2.9</v>
       </c>
       <c r="H67">
-        <v>6.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A88" si="1">A67+25</f>
-        <v>750</v>
+        <f t="shared" si="0"/>
+        <v>725</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2202,79 +2206,79 @@
         <v>0.4</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F68">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="G68">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="H68">
-        <v>7.9</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="1"/>
-        <v>775</v>
+        <f t="shared" ref="A69:A89" si="1">A68+25</f>
+        <v>750</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="D69">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H69">
-        <v>12.7</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E70">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="F70">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="G70">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H70">
-        <v>6.3</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
-        <v>825</v>
+        <v>800</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2286,106 +2290,106 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="F71">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="G71">
-        <v>2.2999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="H71">
-        <v>5.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="B72">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="F72">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="G72">
-        <v>2.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H72">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D73">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="F73">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H73">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="B74">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E74">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H74">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
-        <v>925</v>
+        <v>900</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2394,76 +2398,76 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="F75">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H75">
-        <v>7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
-        <v>950</v>
+        <v>925</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F76">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G76">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H76">
-        <v>3.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
-        <v>975</v>
+        <v>950</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D77">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F77">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="G77">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="H77">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>975</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -2472,106 +2476,106 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="E78">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F78">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="G78">
-        <v>1.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H78">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="B79">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G79">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H79">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E80">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H80">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
-        <v>1075</v>
+        <v>1050</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="F81">
         <v>0.2</v>
       </c>
       <c r="G81">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H81">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2580,52 +2584,52 @@
         <v>0.1</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G82">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H82">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
-        <v>1125</v>
+        <v>1100</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D83">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H83">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
-        <v>1150</v>
+        <v>1125</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2634,130 +2638,191 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G84">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H84">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
-        <v>1175</v>
+        <v>1150</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H85">
-        <v>2.2000000000000002</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1175</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G86">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H86">
-        <v>1.3</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
-        <v>1225</v>
+        <v>1200</v>
       </c>
       <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>1.2</v>
+      </c>
+      <c r="H87">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>2.5</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>5.5</v>
       </c>
-      <c r="E87">
+      <c r="E88">
         <v>6.9</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <v>2.7</v>
       </c>
-      <c r="G87">
+      <c r="G88">
         <v>26.1</v>
       </c>
-      <c r="H87">
+      <c r="H88">
         <v>44.8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f t="shared" si="1"/>
-        <v>1250</v>
-      </c>
-      <c r="B88">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89">
         <v>172.4</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>330.2</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>276.89999999999998</v>
       </c>
-      <c r="E88">
+      <c r="E89">
         <v>269.8</v>
       </c>
-      <c r="F88">
+      <c r="F89">
         <v>231.1</v>
       </c>
-      <c r="G88">
+      <c r="G89">
         <v>555.20000000000005</v>
       </c>
-      <c r="H88">
+      <c r="H89">
         <v>1835.7</v>
       </c>
     </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90">
+        <f>SUM(B3:B38)/B89</f>
+        <v>0.83990719257540591</v>
+      </c>
+      <c r="C90">
+        <f>SUM(C3:C38)/C89</f>
+        <v>0.76408237431859483</v>
+      </c>
+      <c r="D90">
+        <f>SUM(D3:D38)/D89</f>
+        <v>0.73492235464066458</v>
+      </c>
+      <c r="E90">
+        <f>SUM(E3:E38)/E89</f>
+        <v>0.68235730170496667</v>
+      </c>
+      <c r="F90">
+        <f>SUM(F3:F38)/F89</f>
+        <v>0.64214625703158823</v>
+      </c>
+      <c r="G90">
+        <f>SUM(G3:G38)/G89</f>
+        <v>0.50612391930835721</v>
+      </c>
+      <c r="H90">
+        <f>1200/H89</f>
+        <v>0.65370158522634414</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>